--- a/개발관련 문서/개발기능분해도.xlsx
+++ b/개발관련 문서/개발기능분해도.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51512757-89A6-4C5D-AE0A-A211DAA4610F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B10DF8A-9500-4257-9F09-A99292C890EE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,19 +147,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>command: add_party
+    <t>주량 추천 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술 약속 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result: 200
+party_id:(saved party id)
+recommended_drink:(추천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command: add_feedback,
 data: {
-date:"",
-company:"a:b:c:d",
-sleep_hour:(integer)
-tension:(1~10)
-drinking_yesterday: (integer)
+party_id:(id)
+amount_drink:(마신 잔수), 
+drinkness:(취한 정도),
+memo:"(간단한 메모)"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command: check_dup_member_email
+data: {memberEmail:""}</t>
+  </si>
+  <si>
+    <t>command: login,
+data: {memberId:, memberPw:}</t>
+  </si>
+  <si>
+    <t>command: check_dup_member_id
+data: {memberId:""}</t>
+  </si>
+  <si>
+    <t>command: register,
+data: {memberId:, memberPw:, memberEmail}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command: login,
+data: {memberId:, memberPw:}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command: validate_token
+data:{
+token:
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result:200
+result 400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 아닐시
+result: 200
+중복 시
+result: 400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>command: add_feedbacks,
 data: {
+token:(),
 feedback:[
 {
 sleep_hour:(전날 수면양),
@@ -172,68 +227,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주량 추천 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술 약속 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result: 200
-party_id:(saved party id)
-recommended_drink:(추천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command: add_feedback,
+    <t>command: add_party
 data: {
-party_id:(id)
-amount_drink:(마신 잔수), 
-drinkness:(취한 정도),
-memo:"(간단한 메모)"
+token:
+date:"",
+company:"a:b:c:d",
+sleep_hour:(integer)
+tension:(1~10)
+drinking_yesterday: (integer)
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command: check_dup_member_email
-data: {memberEmail:""}</t>
-  </si>
-  <si>
-    <t>command: login,
-data: {memberId:, memberPw:}</t>
-  </si>
-  <si>
-    <t>command: check_dup_member_id
-data: {memberId:""}</t>
-  </si>
-  <si>
-    <t>command: register,
-data: {memberId:, memberPw:, memberEmail}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command: login,
-data: {memberId:, memberPw:}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>command: validate_token
-data:{
-token:
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result:200
-result 400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 아닐시
-result: 200
-중복 시
-result: 400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -739,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>30</v>
@@ -753,7 +755,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="198" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -761,7 +763,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
@@ -786,10 +788,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -800,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>30</v>
@@ -825,10 +827,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -839,10 +841,10 @@
         <v>22</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -853,7 +855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
@@ -861,7 +863,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>29</v>
@@ -878,7 +880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="9" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
@@ -886,11 +888,11 @@
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="C16" s="11" t="s">
         <v>6</v>
       </c>
@@ -898,7 +900,7 @@
         <v>22</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -928,7 +930,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="16" t="s">
         <v>29</v>
@@ -944,10 +946,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
